--- a/team_specific_matrix/Kansas_B.xlsx
+++ b/team_specific_matrix/Kansas_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2112259970457903</v>
+        <v>0.2078977932636469</v>
       </c>
       <c r="C2">
-        <v>0.5332348596750369</v>
+        <v>0.537746806039489</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01477104874446086</v>
+        <v>0.0116144018583043</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1580502215657312</v>
+        <v>0.1556329849012776</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.0827178729689808</v>
+        <v>0.08710801393728224</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.0291005291005291</v>
+        <v>0.02691511387163561</v>
       </c>
       <c r="C3">
-        <v>0.04232804232804233</v>
+        <v>0.03933747412008282</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.0291005291005291</v>
+        <v>0.03105590062111801</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6746031746031746</v>
+        <v>0.6749482401656315</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2248677248677249</v>
+        <v>0.2277432712215321</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02325581395348837</v>
+        <v>0.02654867256637168</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6279069767441861</v>
+        <v>0.6637168141592921</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3488372093023256</v>
+        <v>0.3097345132743363</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.6666666666666666</v>
+        <v>0.75</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.3333333333333333</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1077586206896552</v>
+        <v>0.1014975041597338</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01939655172413793</v>
+        <v>0.01663893510815308</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07543103448275862</v>
+        <v>0.07986688851913477</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2456896551724138</v>
+        <v>0.2412645590682196</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01724137931034483</v>
+        <v>0.01830282861896839</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1336206896551724</v>
+        <v>0.1397670549084858</v>
       </c>
       <c r="R6">
-        <v>0.05172413793103448</v>
+        <v>0.04991680532445923</v>
       </c>
       <c r="S6">
-        <v>0.3491379310344828</v>
+        <v>0.3527454242928453</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1125</v>
+        <v>0.118546845124283</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02</v>
+        <v>0.02103250478011472</v>
       </c>
       <c r="E7">
-        <v>0.0025</v>
+        <v>0.001912045889101338</v>
       </c>
       <c r="F7">
-        <v>0.0625</v>
+        <v>0.06500956022944551</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1525</v>
+        <v>0.1395793499043977</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.015</v>
+        <v>0.0248565965583174</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.16</v>
+        <v>0.1472275334608031</v>
       </c>
       <c r="R7">
-        <v>0.06</v>
+        <v>0.07074569789674952</v>
       </c>
       <c r="S7">
-        <v>0.415</v>
+        <v>0.4110898661567878</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09154929577464789</v>
+        <v>0.09272581934452438</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01509054325955734</v>
+        <v>0.01438848920863309</v>
       </c>
       <c r="E8">
-        <v>0.002012072434607646</v>
+        <v>0.001598721023181455</v>
       </c>
       <c r="F8">
-        <v>0.05935613682092555</v>
+        <v>0.05995203836930456</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1277665995975855</v>
+        <v>0.1239008792965628</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01207243460764587</v>
+        <v>0.01278976818545164</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1780684104627767</v>
+        <v>0.17585931254996</v>
       </c>
       <c r="R8">
-        <v>0.096579476861167</v>
+        <v>0.09592326139088729</v>
       </c>
       <c r="S8">
-        <v>0.4175050301810865</v>
+        <v>0.4228617106314948</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.1019900497512438</v>
+        <v>0.0945945945945946</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02487562189054726</v>
+        <v>0.02316602316602316</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06965174129353234</v>
+        <v>0.06563706563706563</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1169154228855721</v>
+        <v>0.1177606177606178</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01243781094527363</v>
+        <v>0.01544401544401544</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1915422885572139</v>
+        <v>0.1814671814671815</v>
       </c>
       <c r="R9">
-        <v>0.09203980099502487</v>
+        <v>0.09073359073359073</v>
       </c>
       <c r="S9">
-        <v>0.390547263681592</v>
+        <v>0.4111969111969112</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1115384615384615</v>
+        <v>0.1116781747223056</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01769230769230769</v>
+        <v>0.01981386970879616</v>
       </c>
       <c r="E10">
-        <v>0.001153846153846154</v>
+        <v>0.00150105073551486</v>
       </c>
       <c r="F10">
-        <v>0.06961538461538462</v>
+        <v>0.07054938456919845</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1373076923076923</v>
+        <v>0.1371960372260582</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01423076923076923</v>
+        <v>0.01471029720804563</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1869230769230769</v>
+        <v>0.1873311317922546</v>
       </c>
       <c r="R10">
-        <v>0.07653846153846154</v>
+        <v>0.07325127589312519</v>
       </c>
       <c r="S10">
-        <v>0.385</v>
+        <v>0.3839687781447013</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1504132231404959</v>
+        <v>0.1537484116899619</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0743801652892562</v>
+        <v>0.07623888182973317</v>
       </c>
       <c r="K11">
-        <v>0.1917355371900827</v>
+        <v>0.1944091486658196</v>
       </c>
       <c r="L11">
-        <v>0.5603305785123966</v>
+        <v>0.5527318932655655</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02314049586776859</v>
+        <v>0.02287166454891995</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7381615598885793</v>
+        <v>0.7347826086956522</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.16991643454039</v>
+        <v>0.1717391304347826</v>
       </c>
       <c r="K12">
-        <v>0.01114206128133705</v>
+        <v>0.008695652173913044</v>
       </c>
       <c r="L12">
-        <v>0.04178272980501393</v>
+        <v>0.04130434782608695</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03899721448467967</v>
+        <v>0.04347826086956522</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7236842105263158</v>
+        <v>0.7352941176470589</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2236842105263158</v>
+        <v>0.2058823529411765</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05263157894736842</v>
+        <v>0.05882352941176471</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03</v>
+        <v>0.02843601895734597</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.172</v>
+        <v>0.1658767772511848</v>
       </c>
       <c r="I15">
-        <v>0.082</v>
+        <v>0.08688783570300158</v>
       </c>
       <c r="J15">
-        <v>0.384</v>
+        <v>0.368088467614534</v>
       </c>
       <c r="K15">
-        <v>0.066</v>
+        <v>0.06161137440758294</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.006</v>
+        <v>0.009478672985781991</v>
       </c>
       <c r="N15">
         <v>0</v>
       </c>
       <c r="O15">
-        <v>0.082</v>
+        <v>0.08372827804107424</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.178</v>
+        <v>0.1958925750394945</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01485148514851485</v>
+        <v>0.01724137931034483</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.2004950495049505</v>
+        <v>0.1934865900383142</v>
       </c>
       <c r="I16">
-        <v>0.05693069306930693</v>
+        <v>0.06321839080459771</v>
       </c>
       <c r="J16">
-        <v>0.3811881188118812</v>
+        <v>0.3946360153256705</v>
       </c>
       <c r="K16">
-        <v>0.1014851485148515</v>
+        <v>0.1053639846743295</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02227722772277228</v>
+        <v>0.01915708812260536</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.08663366336633663</v>
+        <v>0.08045977011494253</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1361386138613861</v>
+        <v>0.1264367816091954</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01511627906976744</v>
+        <v>0.01931922723091076</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1848837209302326</v>
+        <v>0.1895124195032199</v>
       </c>
       <c r="I17">
-        <v>0.08255813953488372</v>
+        <v>0.08463661453541858</v>
       </c>
       <c r="J17">
-        <v>0.3872093023255814</v>
+        <v>0.3937442502299908</v>
       </c>
       <c r="K17">
-        <v>0.1046511627906977</v>
+        <v>0.1021159153633855</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01744186046511628</v>
+        <v>0.01655933762649494</v>
       </c>
       <c r="N17">
-        <v>0.002325581395348837</v>
+        <v>0.001839926402943882</v>
       </c>
       <c r="O17">
-        <v>0.08255813953488372</v>
+        <v>0.07543698252069918</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1232558139534884</v>
+        <v>0.1168353265869365</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.03116883116883117</v>
+        <v>0.02489626556016597</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1766233766233766</v>
+        <v>0.1659751037344398</v>
       </c>
       <c r="I18">
-        <v>0.1116883116883117</v>
+        <v>0.1120331950207469</v>
       </c>
       <c r="J18">
-        <v>0.4155844155844156</v>
+        <v>0.4211618257261411</v>
       </c>
       <c r="K18">
-        <v>0.09350649350649351</v>
+        <v>0.09336099585062241</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01298701298701299</v>
+        <v>0.01867219917012448</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07792207792207792</v>
+        <v>0.07883817427385892</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08051948051948052</v>
+        <v>0.08506224066390042</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01888930865130336</v>
+        <v>0.01755926251097454</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2225160559123536</v>
+        <v>0.2197834357623646</v>
       </c>
       <c r="I19">
-        <v>0.08424631658481299</v>
+        <v>0.08282118817676325</v>
       </c>
       <c r="J19">
-        <v>0.3664525878352852</v>
+        <v>0.3652326602282704</v>
       </c>
       <c r="K19">
-        <v>0.1050245561012467</v>
+        <v>0.1082821188176763</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01700037778617303</v>
+        <v>0.01785191688615745</v>
       </c>
       <c r="N19">
-        <v>0.0007555723460521345</v>
+        <v>0.001755926251097454</v>
       </c>
       <c r="O19">
-        <v>0.07177937287495277</v>
+        <v>0.07052970441908106</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1133358519078202</v>
+        <v>0.1161837869476149</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Kansas_B.xlsx
+++ b/team_specific_matrix/Kansas_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2078977932636469</v>
+        <v>0.2104712041884817</v>
       </c>
       <c r="C2">
-        <v>0.537746806039489</v>
+        <v>0.5319371727748691</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.0116144018583043</v>
+        <v>0.01256544502617801</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1556329849012776</v>
+        <v>0.1528795811518324</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.08710801393728224</v>
+        <v>0.09214659685863874</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02691511387163561</v>
+        <v>0.02448210922787194</v>
       </c>
       <c r="C3">
-        <v>0.03933747412008282</v>
+        <v>0.04143126177024482</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.03105590062111801</v>
+        <v>0.032015065913371</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6749482401656315</v>
+        <v>0.6836158192090396</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2277432712215321</v>
+        <v>0.2184557438794727</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02654867256637168</v>
+        <v>0.02479338842975207</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6637168141592921</v>
+        <v>0.6611570247933884</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3097345132743363</v>
+        <v>0.3140495867768595</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -717,7 +717,7 @@
         <v>0</v>
       </c>
       <c r="P5">
-        <v>0.75</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="Q5">
         <v>0</v>
@@ -726,7 +726,7 @@
         <v>0</v>
       </c>
       <c r="S5">
-        <v>0.25</v>
+        <v>0.3333333333333333</v>
       </c>
     </row>
     <row r="6" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1014975041597338</v>
+        <v>0.1004636785162288</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.01663893510815308</v>
+        <v>0.0170015455950541</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07986688851913477</v>
+        <v>0.07727975270479134</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2412645590682196</v>
+        <v>0.2457496136012365</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.01830282861896839</v>
+        <v>0.02009273570324575</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1397670549084858</v>
+        <v>0.1437403400309119</v>
       </c>
       <c r="R6">
-        <v>0.04991680532445923</v>
+        <v>0.05100463678516229</v>
       </c>
       <c r="S6">
-        <v>0.3527454242928453</v>
+        <v>0.3446676970633694</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.118546845124283</v>
+        <v>0.1160409556313993</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.02103250478011472</v>
+        <v>0.0204778156996587</v>
       </c>
       <c r="E7">
-        <v>0.001912045889101338</v>
+        <v>0.001706484641638225</v>
       </c>
       <c r="F7">
-        <v>0.06500956022944551</v>
+        <v>0.06143344709897611</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1395793499043977</v>
+        <v>0.1399317406143345</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0248565965583174</v>
+        <v>0.0273037542662116</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1472275334608031</v>
+        <v>0.1467576791808874</v>
       </c>
       <c r="R7">
-        <v>0.07074569789674952</v>
+        <v>0.06996587030716724</v>
       </c>
       <c r="S7">
-        <v>0.4110898661567878</v>
+        <v>0.4163822525597269</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.09272581934452438</v>
+        <v>0.08940158615717375</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.01438848920863309</v>
+        <v>0.0144196106705119</v>
       </c>
       <c r="E8">
-        <v>0.001598721023181455</v>
+        <v>0.002162941600576784</v>
       </c>
       <c r="F8">
-        <v>0.05995203836930456</v>
+        <v>0.05695746214852199</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1239008792965628</v>
+        <v>0.1276135544340303</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01278976818545164</v>
+        <v>0.01297764960346071</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.17585931254996</v>
+        <v>0.1751982696467195</v>
       </c>
       <c r="R8">
-        <v>0.09592326139088729</v>
+        <v>0.09805335255948089</v>
       </c>
       <c r="S8">
-        <v>0.4228617106314948</v>
+        <v>0.4232155731795241</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0945945945945946</v>
+        <v>0.0985663082437276</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02316602316602316</v>
+        <v>0.02150537634408602</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06563706563706563</v>
+        <v>0.06630824372759857</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1177606177606178</v>
+        <v>0.1200716845878136</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01544401544401544</v>
+        <v>0.01971326164874552</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1814671814671815</v>
+        <v>0.1756272401433692</v>
       </c>
       <c r="R9">
-        <v>0.09073359073359073</v>
+        <v>0.08781362007168458</v>
       </c>
       <c r="S9">
-        <v>0.4111969111969112</v>
+        <v>0.4103942652329749</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1116781747223056</v>
+        <v>0.1146549353863074</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.01981386970879616</v>
+        <v>0.0195215837228485</v>
       </c>
       <c r="E10">
-        <v>0.00150105073551486</v>
+        <v>0.001374759417102007</v>
       </c>
       <c r="F10">
-        <v>0.07054938456919845</v>
+        <v>0.07011273027220237</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1371960372260582</v>
+        <v>0.1352763266428375</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01471029720804563</v>
+        <v>0.01402254605444047</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1873311317922546</v>
+        <v>0.1875171844927138</v>
       </c>
       <c r="R10">
-        <v>0.07325127589312519</v>
+        <v>0.076711575474292</v>
       </c>
       <c r="S10">
-        <v>0.3839687781447013</v>
+        <v>0.380808358537256</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1537484116899619</v>
+        <v>0.1476888387824126</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.07623888182973317</v>
+        <v>0.0777903043968433</v>
       </c>
       <c r="K11">
-        <v>0.1944091486658196</v>
+        <v>0.1950394588500564</v>
       </c>
       <c r="L11">
-        <v>0.5527318932655655</v>
+        <v>0.5591882750845547</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02287166454891995</v>
+        <v>0.02029312288613303</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.7347826086956522</v>
+        <v>0.739961759082218</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1717391304347826</v>
+        <v>0.1739961759082218</v>
       </c>
       <c r="K12">
-        <v>0.008695652173913044</v>
+        <v>0.007648183556405353</v>
       </c>
       <c r="L12">
-        <v>0.04130434782608695</v>
+        <v>0.0401529636711281</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.04347826086956522</v>
+        <v>0.03824091778202677</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7352941176470589</v>
+        <v>0.7232142857142857</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2058823529411765</v>
+        <v>0.2053571428571428</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.05882352941176471</v>
+        <v>0.07142857142857142</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1221,7 +1221,7 @@
         <v>0</v>
       </c>
       <c r="G14">
-        <v>0.75</v>
+        <v>0.7777777777777778</v>
       </c>
       <c r="H14">
         <v>0</v>
@@ -1230,7 +1230,7 @@
         <v>0</v>
       </c>
       <c r="J14">
-        <v>0.25</v>
+        <v>0.2222222222222222</v>
       </c>
       <c r="K14">
         <v>0</v>
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.02843601895734597</v>
+        <v>0.03211678832116788</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.1658767772511848</v>
+        <v>0.162043795620438</v>
       </c>
       <c r="I15">
-        <v>0.08688783570300158</v>
+        <v>0.08321167883211679</v>
       </c>
       <c r="J15">
-        <v>0.368088467614534</v>
+        <v>0.3693430656934307</v>
       </c>
       <c r="K15">
-        <v>0.06161137440758294</v>
+        <v>0.06131386861313869</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.009478672985781991</v>
+        <v>0.01021897810218978</v>
       </c>
       <c r="N15">
-        <v>0</v>
+        <v>0.00145985401459854</v>
       </c>
       <c r="O15">
-        <v>0.08372827804107424</v>
+        <v>0.08613138686131387</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1958925750394945</v>
+        <v>0.1941605839416058</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01724137931034483</v>
+        <v>0.01745200698080279</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1934865900383142</v>
+        <v>0.1972076788830716</v>
       </c>
       <c r="I16">
-        <v>0.06321839080459771</v>
+        <v>0.06108202443280977</v>
       </c>
       <c r="J16">
-        <v>0.3946360153256705</v>
+        <v>0.387434554973822</v>
       </c>
       <c r="K16">
-        <v>0.1053639846743295</v>
+        <v>0.1099476439790576</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.01915708812260536</v>
+        <v>0.02094240837696335</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.08045977011494253</v>
+        <v>0.07504363001745201</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1264367816091954</v>
+        <v>0.1308900523560209</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01931922723091076</v>
+        <v>0.01767676767676768</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1895124195032199</v>
+        <v>0.1927609427609428</v>
       </c>
       <c r="I17">
-        <v>0.08463661453541858</v>
+        <v>0.08585858585858586</v>
       </c>
       <c r="J17">
-        <v>0.3937442502299908</v>
+        <v>0.3939393939393939</v>
       </c>
       <c r="K17">
-        <v>0.1021159153633855</v>
+        <v>0.1069023569023569</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01655933762649494</v>
+        <v>0.01599326599326599</v>
       </c>
       <c r="N17">
-        <v>0.001839926402943882</v>
+        <v>0.001683501683501683</v>
       </c>
       <c r="O17">
-        <v>0.07543698252069918</v>
+        <v>0.0707070707070707</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1168353265869365</v>
+        <v>0.1144781144781145</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.02489626556016597</v>
+        <v>0.022181146025878</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1659751037344398</v>
+        <v>0.1682070240295749</v>
       </c>
       <c r="I18">
-        <v>0.1120331950207469</v>
+        <v>0.11090573012939</v>
       </c>
       <c r="J18">
-        <v>0.4211618257261411</v>
+        <v>0.4214417744916821</v>
       </c>
       <c r="K18">
-        <v>0.09336099585062241</v>
+        <v>0.09611829944547134</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01867219917012448</v>
+        <v>0.01848428835489834</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07883817427385892</v>
+        <v>0.07578558225508318</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08506224066390042</v>
+        <v>0.08687615526802218</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01755926251097454</v>
+        <v>0.01715817694369973</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2197834357623646</v>
+        <v>0.2235924932975871</v>
       </c>
       <c r="I19">
-        <v>0.08282118817676325</v>
+        <v>0.08150134048257372</v>
       </c>
       <c r="J19">
-        <v>0.3652326602282704</v>
+        <v>0.3597855227882037</v>
       </c>
       <c r="K19">
-        <v>0.1082821188176763</v>
+        <v>0.1115281501340483</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01785191688615745</v>
+        <v>0.01769436997319035</v>
       </c>
       <c r="N19">
-        <v>0.001755926251097454</v>
+        <v>0.00160857908847185</v>
       </c>
       <c r="O19">
-        <v>0.07052970441908106</v>
+        <v>0.07024128686327077</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1161837869476149</v>
+        <v>0.1168900804289544</v>
       </c>
     </row>
   </sheetData>

--- a/team_specific_matrix/Kansas_B.xlsx
+++ b/team_specific_matrix/Kansas_B.xlsx
@@ -498,10 +498,10 @@
         <v>0</v>
       </c>
       <c r="B2">
-        <v>0.2104712041884817</v>
+        <v>0.2135627530364372</v>
       </c>
       <c r="C2">
-        <v>0.5319371727748691</v>
+        <v>0.5232793522267206</v>
       </c>
       <c r="D2">
         <v>0</v>
@@ -522,7 +522,7 @@
         <v>0</v>
       </c>
       <c r="J2">
-        <v>0.01256544502617801</v>
+        <v>0.01214574898785425</v>
       </c>
       <c r="K2">
         <v>0</v>
@@ -540,7 +540,7 @@
         <v>0</v>
       </c>
       <c r="P2">
-        <v>0.1528795811518324</v>
+        <v>0.1538461538461539</v>
       </c>
       <c r="Q2">
         <v>0</v>
@@ -549,7 +549,7 @@
         <v>0</v>
       </c>
       <c r="S2">
-        <v>0.09214659685863874</v>
+        <v>0.09716599190283401</v>
       </c>
     </row>
     <row r="3" spans="1:19">
@@ -557,10 +557,10 @@
         <v>1</v>
       </c>
       <c r="B3">
-        <v>0.02448210922787194</v>
+        <v>0.02407407407407407</v>
       </c>
       <c r="C3">
-        <v>0.04143126177024482</v>
+        <v>0.04074074074074074</v>
       </c>
       <c r="D3">
         <v>0</v>
@@ -581,7 +581,7 @@
         <v>0</v>
       </c>
       <c r="J3">
-        <v>0.032015065913371</v>
+        <v>0.03148148148148148</v>
       </c>
       <c r="K3">
         <v>0</v>
@@ -599,7 +599,7 @@
         <v>0</v>
       </c>
       <c r="P3">
-        <v>0.6836158192090396</v>
+        <v>0.687037037037037</v>
       </c>
       <c r="Q3">
         <v>0</v>
@@ -608,7 +608,7 @@
         <v>0</v>
       </c>
       <c r="S3">
-        <v>0.2184557438794727</v>
+        <v>0.2166666666666667</v>
       </c>
     </row>
     <row r="4" spans="1:19">
@@ -640,7 +640,7 @@
         <v>0</v>
       </c>
       <c r="J4">
-        <v>0.02479338842975207</v>
+        <v>0.032</v>
       </c>
       <c r="K4">
         <v>0</v>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
       <c r="P4">
-        <v>0.6611570247933884</v>
+        <v>0.656</v>
       </c>
       <c r="Q4">
         <v>0</v>
@@ -667,7 +667,7 @@
         <v>0</v>
       </c>
       <c r="S4">
-        <v>0.3140495867768595</v>
+        <v>0.312</v>
       </c>
     </row>
     <row r="5" spans="1:19">
@@ -734,19 +734,19 @@
         <v>4</v>
       </c>
       <c r="B6">
-        <v>0.1004636785162288</v>
+        <v>0.09838472834067548</v>
       </c>
       <c r="C6">
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.0170015455950541</v>
+        <v>0.01615271659324523</v>
       </c>
       <c r="E6">
         <v>0</v>
       </c>
       <c r="F6">
-        <v>0.07727975270479134</v>
+        <v>0.08076358296622614</v>
       </c>
       <c r="G6">
         <v>0</v>
@@ -758,7 +758,7 @@
         <v>0</v>
       </c>
       <c r="J6">
-        <v>0.2457496136012365</v>
+        <v>0.2452276064610866</v>
       </c>
       <c r="K6">
         <v>0</v>
@@ -773,19 +773,19 @@
         <v>0</v>
       </c>
       <c r="O6">
-        <v>0.02009273570324575</v>
+        <v>0.01908957415565345</v>
       </c>
       <c r="P6">
         <v>0</v>
       </c>
       <c r="Q6">
-        <v>0.1437403400309119</v>
+        <v>0.1439060205580029</v>
       </c>
       <c r="R6">
-        <v>0.05100463678516229</v>
+        <v>0.05286343612334802</v>
       </c>
       <c r="S6">
-        <v>0.3446676970633694</v>
+        <v>0.3436123348017621</v>
       </c>
     </row>
     <row r="7" spans="1:19">
@@ -793,19 +793,19 @@
         <v>5</v>
       </c>
       <c r="B7">
-        <v>0.1160409556313993</v>
+        <v>0.1127214170692432</v>
       </c>
       <c r="C7">
         <v>0</v>
       </c>
       <c r="D7">
-        <v>0.0204778156996587</v>
+        <v>0.01932367149758454</v>
       </c>
       <c r="E7">
-        <v>0.001706484641638225</v>
+        <v>0.001610305958132045</v>
       </c>
       <c r="F7">
-        <v>0.06143344709897611</v>
+        <v>0.0644122383252818</v>
       </c>
       <c r="G7">
         <v>0</v>
@@ -817,7 +817,7 @@
         <v>0</v>
       </c>
       <c r="J7">
-        <v>0.1399317406143345</v>
+        <v>0.1384863123993559</v>
       </c>
       <c r="K7">
         <v>0</v>
@@ -832,19 +832,19 @@
         <v>0</v>
       </c>
       <c r="O7">
-        <v>0.0273037542662116</v>
+        <v>0.02576489533011272</v>
       </c>
       <c r="P7">
         <v>0</v>
       </c>
       <c r="Q7">
-        <v>0.1467576791808874</v>
+        <v>0.14170692431562</v>
       </c>
       <c r="R7">
-        <v>0.06996587030716724</v>
+        <v>0.07085346215780998</v>
       </c>
       <c r="S7">
-        <v>0.4163822525597269</v>
+        <v>0.4251207729468599</v>
       </c>
     </row>
     <row r="8" spans="1:19">
@@ -852,19 +852,19 @@
         <v>6</v>
       </c>
       <c r="B8">
-        <v>0.08940158615717375</v>
+        <v>0.08908839779005524</v>
       </c>
       <c r="C8">
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.0144196106705119</v>
+        <v>0.01450276243093923</v>
       </c>
       <c r="E8">
-        <v>0.002162941600576784</v>
+        <v>0.002071823204419889</v>
       </c>
       <c r="F8">
-        <v>0.05695746214852199</v>
+        <v>0.05524861878453038</v>
       </c>
       <c r="G8">
         <v>0</v>
@@ -876,7 +876,7 @@
         <v>0</v>
       </c>
       <c r="J8">
-        <v>0.1276135544340303</v>
+        <v>0.1270718232044199</v>
       </c>
       <c r="K8">
         <v>0</v>
@@ -891,19 +891,19 @@
         <v>0</v>
       </c>
       <c r="O8">
-        <v>0.01297764960346071</v>
+        <v>0.0138121546961326</v>
       </c>
       <c r="P8">
         <v>0</v>
       </c>
       <c r="Q8">
-        <v>0.1751982696467195</v>
+        <v>0.175414364640884</v>
       </c>
       <c r="R8">
-        <v>0.09805335255948089</v>
+        <v>0.09875690607734806</v>
       </c>
       <c r="S8">
-        <v>0.4232155731795241</v>
+        <v>0.4240331491712707</v>
       </c>
     </row>
     <row r="9" spans="1:19">
@@ -911,19 +911,19 @@
         <v>7</v>
       </c>
       <c r="B9">
-        <v>0.0985663082437276</v>
+        <v>0.09777015437392796</v>
       </c>
       <c r="C9">
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.02150537634408602</v>
+        <v>0.02229845626072041</v>
       </c>
       <c r="E9">
         <v>0</v>
       </c>
       <c r="F9">
-        <v>0.06630824372759857</v>
+        <v>0.0686106346483705</v>
       </c>
       <c r="G9">
         <v>0</v>
@@ -935,7 +935,7 @@
         <v>0</v>
       </c>
       <c r="J9">
-        <v>0.1200716845878136</v>
+        <v>0.1200686106346484</v>
       </c>
       <c r="K9">
         <v>0</v>
@@ -950,19 +950,19 @@
         <v>0</v>
       </c>
       <c r="O9">
-        <v>0.01971326164874552</v>
+        <v>0.01886792452830189</v>
       </c>
       <c r="P9">
         <v>0</v>
       </c>
       <c r="Q9">
-        <v>0.1756272401433692</v>
+        <v>0.1749571183533448</v>
       </c>
       <c r="R9">
-        <v>0.08781362007168458</v>
+        <v>0.08747855917667238</v>
       </c>
       <c r="S9">
-        <v>0.4103942652329749</v>
+        <v>0.4099485420240137</v>
       </c>
     </row>
     <row r="10" spans="1:19">
@@ -970,19 +970,19 @@
         <v>8</v>
       </c>
       <c r="B10">
-        <v>0.1146549353863074</v>
+        <v>0.1122742737503271</v>
       </c>
       <c r="C10">
         <v>0</v>
       </c>
       <c r="D10">
-        <v>0.0195215837228485</v>
+        <v>0.01910494634912327</v>
       </c>
       <c r="E10">
-        <v>0.001374759417102007</v>
+        <v>0.001308557969118032</v>
       </c>
       <c r="F10">
-        <v>0.07011273027220237</v>
+        <v>0.0698769955509029</v>
       </c>
       <c r="G10">
         <v>0</v>
@@ -994,7 +994,7 @@
         <v>0</v>
       </c>
       <c r="J10">
-        <v>0.1352763266428375</v>
+        <v>0.1345197592253337</v>
       </c>
       <c r="K10">
         <v>0</v>
@@ -1009,19 +1009,19 @@
         <v>0</v>
       </c>
       <c r="O10">
-        <v>0.01402254605444047</v>
+        <v>0.01544098403559278</v>
       </c>
       <c r="P10">
         <v>0</v>
       </c>
       <c r="Q10">
-        <v>0.1875171844927138</v>
+        <v>0.1884323475529966</v>
       </c>
       <c r="R10">
-        <v>0.076711575474292</v>
+        <v>0.07825176655325831</v>
       </c>
       <c r="S10">
-        <v>0.380808358537256</v>
+        <v>0.3807903690133473</v>
       </c>
     </row>
     <row r="11" spans="1:19">
@@ -1044,7 +1044,7 @@
         <v>0</v>
       </c>
       <c r="G11">
-        <v>0.1476888387824126</v>
+        <v>0.1445396145610278</v>
       </c>
       <c r="H11">
         <v>0</v>
@@ -1053,13 +1053,13 @@
         <v>0</v>
       </c>
       <c r="J11">
-        <v>0.0777903043968433</v>
+        <v>0.07815845824411134</v>
       </c>
       <c r="K11">
-        <v>0.1950394588500564</v>
+        <v>0.1905781584582441</v>
       </c>
       <c r="L11">
-        <v>0.5591882750845547</v>
+        <v>0.5674518201284796</v>
       </c>
       <c r="M11">
         <v>0</v>
@@ -1080,7 +1080,7 @@
         <v>0</v>
       </c>
       <c r="S11">
-        <v>0.02029312288613303</v>
+        <v>0.01927194860813704</v>
       </c>
     </row>
     <row r="12" spans="1:19">
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="G12">
-        <v>0.739961759082218</v>
+        <v>0.7423971377459749</v>
       </c>
       <c r="H12">
         <v>0</v>
@@ -1112,13 +1112,13 @@
         <v>0</v>
       </c>
       <c r="J12">
-        <v>0.1739961759082218</v>
+        <v>0.1735241502683363</v>
       </c>
       <c r="K12">
-        <v>0.007648183556405353</v>
+        <v>0.007155635062611807</v>
       </c>
       <c r="L12">
-        <v>0.0401529636711281</v>
+        <v>0.03935599284436494</v>
       </c>
       <c r="M12">
         <v>0</v>
@@ -1139,7 +1139,7 @@
         <v>0</v>
       </c>
       <c r="S12">
-        <v>0.03824091778202677</v>
+        <v>0.03756708407871199</v>
       </c>
     </row>
     <row r="13" spans="1:19">
@@ -1162,7 +1162,7 @@
         <v>0</v>
       </c>
       <c r="G13">
-        <v>0.7232142857142857</v>
+        <v>0.7241379310344828</v>
       </c>
       <c r="H13">
         <v>0</v>
@@ -1171,7 +1171,7 @@
         <v>0</v>
       </c>
       <c r="J13">
-        <v>0.2053571428571428</v>
+        <v>0.2068965517241379</v>
       </c>
       <c r="K13">
         <v>0</v>
@@ -1198,7 +1198,7 @@
         <v>0</v>
       </c>
       <c r="S13">
-        <v>0.07142857142857142</v>
+        <v>0.06896551724137931</v>
       </c>
     </row>
     <row r="14" spans="1:19">
@@ -1277,34 +1277,34 @@
         <v>0</v>
       </c>
       <c r="F15">
-        <v>0.03211678832116788</v>
+        <v>0.03047091412742382</v>
       </c>
       <c r="G15">
         <v>0</v>
       </c>
       <c r="H15">
-        <v>0.162043795620438</v>
+        <v>0.1620498614958449</v>
       </c>
       <c r="I15">
-        <v>0.08321167883211679</v>
+        <v>0.0817174515235457</v>
       </c>
       <c r="J15">
-        <v>0.3693430656934307</v>
+        <v>0.3670360110803324</v>
       </c>
       <c r="K15">
-        <v>0.06131386861313869</v>
+        <v>0.06509695290858726</v>
       </c>
       <c r="L15">
         <v>0</v>
       </c>
       <c r="M15">
-        <v>0.01021897810218978</v>
+        <v>0.009695290858725761</v>
       </c>
       <c r="N15">
-        <v>0.00145985401459854</v>
+        <v>0.001385041551246537</v>
       </c>
       <c r="O15">
-        <v>0.08613138686131387</v>
+        <v>0.08448753462603878</v>
       </c>
       <c r="P15">
         <v>0</v>
@@ -1316,7 +1316,7 @@
         <v>0</v>
       </c>
       <c r="S15">
-        <v>0.1941605839416058</v>
+        <v>0.1980609418282548</v>
       </c>
     </row>
     <row r="16" spans="1:19">
@@ -1336,34 +1336,34 @@
         <v>0</v>
       </c>
       <c r="F16">
-        <v>0.01745200698080279</v>
+        <v>0.01700680272108844</v>
       </c>
       <c r="G16">
         <v>0</v>
       </c>
       <c r="H16">
-        <v>0.1972076788830716</v>
+        <v>0.195578231292517</v>
       </c>
       <c r="I16">
-        <v>0.06108202443280977</v>
+        <v>0.06462585034013606</v>
       </c>
       <c r="J16">
-        <v>0.387434554973822</v>
+        <v>0.391156462585034</v>
       </c>
       <c r="K16">
-        <v>0.1099476439790576</v>
+        <v>0.1105442176870748</v>
       </c>
       <c r="L16">
         <v>0</v>
       </c>
       <c r="M16">
-        <v>0.02094240837696335</v>
+        <v>0.02040816326530612</v>
       </c>
       <c r="N16">
         <v>0</v>
       </c>
       <c r="O16">
-        <v>0.07504363001745201</v>
+        <v>0.07312925170068027</v>
       </c>
       <c r="P16">
         <v>0</v>
@@ -1375,7 +1375,7 @@
         <v>0</v>
       </c>
       <c r="S16">
-        <v>0.1308900523560209</v>
+        <v>0.1275510204081633</v>
       </c>
     </row>
     <row r="17" spans="1:19">
@@ -1395,34 +1395,34 @@
         <v>0</v>
       </c>
       <c r="F17">
-        <v>0.01767676767676768</v>
+        <v>0.01682692307692308</v>
       </c>
       <c r="G17">
         <v>0</v>
       </c>
       <c r="H17">
-        <v>0.1927609427609428</v>
+        <v>0.1931089743589744</v>
       </c>
       <c r="I17">
-        <v>0.08585858585858586</v>
+        <v>0.08413461538461539</v>
       </c>
       <c r="J17">
-        <v>0.3939393939393939</v>
+        <v>0.3958333333333333</v>
       </c>
       <c r="K17">
-        <v>0.1069023569023569</v>
+        <v>0.1073717948717949</v>
       </c>
       <c r="L17">
         <v>0</v>
       </c>
       <c r="M17">
-        <v>0.01599326599326599</v>
+        <v>0.01682692307692308</v>
       </c>
       <c r="N17">
-        <v>0.001683501683501683</v>
+        <v>0.001602564102564103</v>
       </c>
       <c r="O17">
-        <v>0.0707070707070707</v>
+        <v>0.07131410256410256</v>
       </c>
       <c r="P17">
         <v>0</v>
@@ -1434,7 +1434,7 @@
         <v>0</v>
       </c>
       <c r="S17">
-        <v>0.1144781144781145</v>
+        <v>0.1129807692307692</v>
       </c>
     </row>
     <row r="18" spans="1:19">
@@ -1454,34 +1454,34 @@
         <v>0</v>
       </c>
       <c r="F18">
-        <v>0.022181146025878</v>
+        <v>0.02083333333333333</v>
       </c>
       <c r="G18">
         <v>0</v>
       </c>
       <c r="H18">
-        <v>0.1682070240295749</v>
+        <v>0.1684027777777778</v>
       </c>
       <c r="I18">
-        <v>0.11090573012939</v>
+        <v>0.1059027777777778</v>
       </c>
       <c r="J18">
-        <v>0.4214417744916821</v>
+        <v>0.4184027777777778</v>
       </c>
       <c r="K18">
-        <v>0.09611829944547134</v>
+        <v>0.1024305555555556</v>
       </c>
       <c r="L18">
         <v>0</v>
       </c>
       <c r="M18">
-        <v>0.01848428835489834</v>
+        <v>0.01909722222222222</v>
       </c>
       <c r="N18">
         <v>0</v>
       </c>
       <c r="O18">
-        <v>0.07578558225508318</v>
+        <v>0.07465277777777778</v>
       </c>
       <c r="P18">
         <v>0</v>
@@ -1493,7 +1493,7 @@
         <v>0</v>
       </c>
       <c r="S18">
-        <v>0.08687615526802218</v>
+        <v>0.09027777777777778</v>
       </c>
     </row>
     <row r="19" spans="1:19">
@@ -1513,34 +1513,34 @@
         <v>0</v>
       </c>
       <c r="F19">
-        <v>0.01715817694369973</v>
+        <v>0.01835798062213156</v>
       </c>
       <c r="G19">
         <v>0</v>
       </c>
       <c r="H19">
-        <v>0.2235924932975871</v>
+        <v>0.2218255991840898</v>
       </c>
       <c r="I19">
-        <v>0.08150134048257372</v>
+        <v>0.0815910249872514</v>
       </c>
       <c r="J19">
-        <v>0.3597855227882037</v>
+        <v>0.3607853136155023</v>
       </c>
       <c r="K19">
-        <v>0.1115281501340483</v>
+        <v>0.11116777154513</v>
       </c>
       <c r="L19">
         <v>0</v>
       </c>
       <c r="M19">
-        <v>0.01769436997319035</v>
+        <v>0.01708312085670576</v>
       </c>
       <c r="N19">
-        <v>0.00160857908847185</v>
+        <v>0.001529831718510964</v>
       </c>
       <c r="O19">
-        <v>0.07024128686327077</v>
+        <v>0.06986231514533402</v>
       </c>
       <c r="P19">
         <v>0</v>
@@ -1552,7 +1552,7 @@
         <v>0</v>
       </c>
       <c r="S19">
-        <v>0.1168900804289544</v>
+        <v>0.1177970423253442</v>
       </c>
     </row>
   </sheetData>
